--- a/Data/Topic Breakdown.xlsx
+++ b/Data/Topic Breakdown.xlsx
@@ -2912,7 +2912,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3318,7 +3318,7 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -3328,7 +3328,7 @@
     <col min="6" max="6" width="102" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3806,77 +3806,77 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3895,7 +3895,7 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -3905,7 +3905,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4703,7 +4703,7 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -4713,7 +4713,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5491,15 +5491,15 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>827</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>828</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>850</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>829</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>830</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>857</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>831</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>832</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>864</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>833</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>835</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>870</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>836</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>834</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>876</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>837</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>838</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>880</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>839</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>840</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>887</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>841</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>842</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>889</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>843</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>844</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>892</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>845</v>
       </c>
@@ -6173,10 +6173,10 @@
         <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>846</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>898</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>847</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>848</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>902</v>
       </c>
@@ -6297,7 +6297,7 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -6307,7 +6307,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -6879,52 +6879,52 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6943,7 +6943,7 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -6953,7 +6953,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7481,57 +7481,57 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7550,7 +7550,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -7560,7 +7560,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8021,77 +8021,77 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8110,7 +8110,7 @@
       <selection activeCell="D25" sqref="D25:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -8120,7 +8120,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8590,77 +8590,77 @@
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8679,7 +8679,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
@@ -8689,7 +8689,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -9147,77 +9147,77 @@
         <v>474</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -9236,7 +9236,7 @@
       <selection activeCell="A43" sqref="A43:H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -9246,7 +9246,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -10002,7 +10002,7 @@
       <selection activeCell="I47" sqref="B45:I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -10012,7 +10012,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -10788,7 +10788,7 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -10798,7 +10798,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -11500,7 +11500,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -11770,18 +11770,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11804,14 +11804,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28E49BED-6583-4A90-8C68-901DA3709556}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C4CB42B-A03C-41C2-8A4E-CFAC77CE140C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="da8a4db2-b52b-4ccc-8e67-f2ee74f14b89"/>
@@ -11826,4 +11818,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28E49BED-6583-4A90-8C68-901DA3709556}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/Topic Breakdown.xlsx
+++ b/Data/Topic Breakdown.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="908">
   <si>
     <t>Question</t>
   </si>
@@ -2810,9 +2810,6 @@
   </si>
   <si>
     <t>TN.C2 Amount</t>
-  </si>
-  <si>
-    <t>Formaton</t>
   </si>
   <si>
     <t>6 ~ 9</t>
@@ -5491,7 +5488,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5527,13 +5524,13 @@
         <v>828</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>849</v>
       </c>
       <c r="D2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E2" t="s">
         <v>853</v>
@@ -5878,7 +5875,7 @@
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>877</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
         <v>36</v>
@@ -5895,10 +5892,10 @@
         <v>871</v>
       </c>
       <c r="C17" t="s">
+        <v>877</v>
+      </c>
+      <c r="D17" t="s">
         <v>878</v>
-      </c>
-      <c r="D17" t="s">
-        <v>879</v>
       </c>
       <c r="E17" t="s">
         <v>853</v>
@@ -5912,7 +5909,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -5965,27 +5962,27 @@
         <v>840</v>
       </c>
       <c r="B20" t="s">
+        <v>880</v>
+      </c>
+      <c r="C20" t="s">
         <v>881</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>882</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>883</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>884</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>885</v>
-      </c>
-      <c r="G20" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B21">
         <v>13</v>
@@ -6038,27 +6035,27 @@
         <v>842</v>
       </c>
       <c r="B23" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C23" t="s">
+        <v>904</v>
+      </c>
+      <c r="D23" t="s">
         <v>905</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>906</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>907</v>
       </c>
-      <c r="F23" t="s">
-        <v>908</v>
-      </c>
       <c r="G23" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B24">
         <v>13</v>
@@ -6111,27 +6108,27 @@
         <v>844</v>
       </c>
       <c r="B26" t="s">
+        <v>880</v>
+      </c>
+      <c r="C26" t="s">
         <v>881</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>882</v>
       </c>
-      <c r="D26" t="s">
-        <v>883</v>
-      </c>
       <c r="E26" t="s">
+        <v>889</v>
+      </c>
+      <c r="F26" t="s">
         <v>890</v>
       </c>
-      <c r="F26" t="s">
-        <v>891</v>
-      </c>
       <c r="G26" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B27">
         <v>13</v>
@@ -6181,24 +6178,24 @@
         <v>846</v>
       </c>
       <c r="B29" t="s">
+        <v>892</v>
+      </c>
+      <c r="C29" t="s">
         <v>893</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>894</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>895</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>896</v>
-      </c>
-      <c r="F29" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -6245,24 +6242,24 @@
         <v>848</v>
       </c>
       <c r="B32" t="s">
+        <v>892</v>
+      </c>
+      <c r="C32" t="s">
         <v>893</v>
       </c>
-      <c r="C32" t="s">
-        <v>894</v>
-      </c>
       <c r="D32" t="s">
+        <v>898</v>
+      </c>
+      <c r="E32" t="s">
         <v>899</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>900</v>
-      </c>
-      <c r="F32" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -11770,18 +11767,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11804,6 +11801,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28E49BED-6583-4A90-8C68-901DA3709556}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C4CB42B-A03C-41C2-8A4E-CFAC77CE140C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="da8a4db2-b52b-4ccc-8e67-f2ee74f14b89"/>
@@ -11818,12 +11823,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28E49BED-6583-4A90-8C68-901DA3709556}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Data/Topic Breakdown.xlsx
+++ b/Data/Topic Breakdown.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevint24\Documents\Project\VEYM_benchmark_analytics_2019\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\VEYM_benchmark_analytics_2019\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFF1B21-2D9A-4763-B12F-808931917147}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21810" windowHeight="14610" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="5880" yWindow="1650" windowWidth="7500" windowHeight="6000" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AN.C1" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
     <sheet name="HS.C2" sheetId="13" r:id="rId11"/>
     <sheet name="Altogether" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2842,9 +2843,6 @@
     <t>NS.C1 Amount</t>
   </si>
   <si>
-    <t>40 ~ 42</t>
-  </si>
-  <si>
     <t>NS.C2 Amount</t>
   </si>
   <si>
@@ -2903,13 +2901,16 @@
   </si>
   <si>
     <t>35 ~ 38</t>
+  </si>
+  <si>
+    <t>39 ~ 41</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3308,14 +3309,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -3325,7 +3326,7 @@
     <col min="6" max="6" width="102" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3345,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3359,7 +3360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3373,7 +3374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3387,7 +3388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3401,7 +3402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3415,7 +3416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3429,7 +3430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3483,7 +3484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3563,7 +3564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3583,7 +3584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3643,7 +3644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3723,7 +3724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3743,7 +3744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3763,7 +3764,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3803,77 +3804,77 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3885,14 +3886,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -3902,7 +3903,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3922,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3934,7 +3935,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3945,7 +3946,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3956,7 +3957,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3967,7 +3968,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3978,7 +3979,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3989,7 +3990,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4009,7 +4010,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4029,7 +4030,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4049,7 +4050,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4069,7 +4070,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4089,7 +4090,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4109,7 +4110,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4129,7 +4130,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4149,7 +4150,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4169,7 +4170,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4189,7 +4190,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4209,7 +4210,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4229,7 +4230,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4249,7 +4250,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4269,7 +4270,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4289,7 +4290,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4309,7 +4310,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4329,7 +4330,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4349,7 +4350,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4369,7 +4370,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4389,7 +4390,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4409,7 +4410,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4429,7 +4430,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4449,7 +4450,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4469,7 +4470,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4489,7 +4490,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4509,7 +4510,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4529,7 +4530,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4549,7 +4550,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4586,7 +4587,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4626,7 +4627,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4693,14 +4694,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B14" sqref="B14:B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -4710,7 +4711,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4764,7 +4765,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4775,7 +4776,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4786,7 +4787,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4797,7 +4798,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4817,7 +4818,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4837,7 +4838,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4857,7 +4858,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4877,7 +4878,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4897,7 +4898,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4917,7 +4918,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4937,7 +4938,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4957,7 +4958,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4977,7 +4978,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4997,7 +4998,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5017,7 +5018,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5037,7 +5038,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5057,7 +5058,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5077,7 +5078,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5097,7 +5098,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5117,7 +5118,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5137,7 +5138,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5157,7 +5158,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5177,7 +5178,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5197,7 +5198,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5217,7 +5218,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5237,7 +5238,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5257,7 +5258,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5277,7 +5278,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5297,7 +5298,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5317,7 +5318,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5337,7 +5338,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5357,7 +5358,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5377,7 +5378,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5397,7 +5398,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5417,7 +5418,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5437,7 +5438,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5457,7 +5458,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5484,19 +5485,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>827</v>
       </c>
@@ -5519,18 +5520,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>828</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>849</v>
       </c>
       <c r="D2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E2" t="s">
         <v>853</v>
@@ -5542,7 +5543,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>850</v>
       </c>
@@ -5569,7 +5570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>829</v>
       </c>
@@ -5592,7 +5593,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>830</v>
       </c>
@@ -5615,7 +5616,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>857</v>
       </c>
@@ -5642,7 +5643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>831</v>
       </c>
@@ -5665,7 +5666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>832</v>
       </c>
@@ -5688,7 +5689,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>864</v>
       </c>
@@ -5715,7 +5716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>833</v>
       </c>
@@ -5738,7 +5739,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>835</v>
       </c>
@@ -5761,7 +5762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>870</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>836</v>
       </c>
@@ -5811,7 +5812,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>834</v>
       </c>
@@ -5834,7 +5835,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>876</v>
       </c>
@@ -5861,7 +5862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>837</v>
       </c>
@@ -5884,7 +5885,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>838</v>
       </c>
@@ -5907,7 +5908,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>879</v>
       </c>
@@ -5934,7 +5935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>839</v>
       </c>
@@ -5957,7 +5958,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>840</v>
       </c>
@@ -5980,7 +5981,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>886</v>
       </c>
@@ -6007,7 +6008,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>841</v>
       </c>
@@ -6030,7 +6031,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>842</v>
       </c>
@@ -6038,24 +6039,24 @@
         <v>880</v>
       </c>
       <c r="C23" t="s">
+        <v>903</v>
+      </c>
+      <c r="D23" t="s">
         <v>904</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>905</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>906</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>907</v>
       </c>
-      <c r="G23" t="s">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>887</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>888</v>
       </c>
       <c r="B24">
         <v>13</v>
@@ -6080,7 +6081,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>843</v>
       </c>
@@ -6103,7 +6104,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>844</v>
       </c>
@@ -6117,18 +6118,18 @@
         <v>882</v>
       </c>
       <c r="E26" t="s">
+        <v>888</v>
+      </c>
+      <c r="F26" t="s">
         <v>889</v>
-      </c>
-      <c r="F26" t="s">
-        <v>890</v>
       </c>
       <c r="G26" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B27">
         <v>13</v>
@@ -6153,7 +6154,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>845</v>
       </c>
@@ -6173,29 +6174,29 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>846</v>
       </c>
       <c r="B29" t="s">
+        <v>891</v>
+      </c>
+      <c r="C29" t="s">
         <v>892</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>893</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>894</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>895</v>
       </c>
-      <c r="F29" t="s">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>896</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>897</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -6217,7 +6218,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>847</v>
       </c>
@@ -6237,29 +6238,29 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>848</v>
       </c>
       <c r="B32" t="s">
+        <v>891</v>
+      </c>
+      <c r="C32" t="s">
         <v>892</v>
       </c>
-      <c r="C32" t="s">
-        <v>893</v>
-      </c>
       <c r="D32" t="s">
+        <v>897</v>
+      </c>
+      <c r="E32" t="s">
         <v>898</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>899</v>
       </c>
-      <c r="F32" t="s">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>900</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>901</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -6287,14 +6288,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -6304,7 +6305,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6324,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6338,7 +6339,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6352,7 +6353,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6366,7 +6367,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6380,7 +6381,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6394,7 +6395,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6408,7 +6409,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6422,7 +6423,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6436,7 +6437,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6456,7 +6457,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6476,7 +6477,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6496,7 +6497,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6516,7 +6517,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6536,7 +6537,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6556,7 +6557,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6576,7 +6577,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6596,7 +6597,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6616,7 +6617,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6636,7 +6637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6676,7 +6677,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6696,7 +6697,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6716,7 +6717,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6736,7 +6737,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6756,7 +6757,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6776,7 +6777,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6796,7 +6797,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6816,7 +6817,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -6836,7 +6837,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -6856,7 +6857,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -6876,52 +6877,52 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6933,14 +6934,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -6950,7 +6951,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6970,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6984,7 +6985,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6998,7 +6999,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7012,7 +7013,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7026,7 +7027,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7054,7 +7055,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7068,7 +7069,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7082,7 +7083,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7096,7 +7097,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7110,7 +7111,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7124,7 +7125,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7138,7 +7139,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7158,7 +7159,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7178,7 +7179,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7198,7 +7199,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7218,7 +7219,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7238,7 +7239,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7258,7 +7259,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7278,7 +7279,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7298,7 +7299,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7318,7 +7319,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7338,7 +7339,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7358,7 +7359,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7378,7 +7379,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7398,7 +7399,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7418,7 +7419,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7438,7 +7439,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7458,7 +7459,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7478,57 +7479,57 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7540,14 +7541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -7557,7 +7558,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7577,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7589,7 +7590,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7600,7 +7601,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7611,7 +7612,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7622,7 +7623,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7642,7 +7643,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7662,7 +7663,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7682,7 +7683,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7702,7 +7703,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7722,7 +7723,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7736,7 +7737,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7750,7 +7751,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7764,7 +7765,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7778,7 +7779,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7798,7 +7799,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7818,7 +7819,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7838,7 +7839,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7858,7 +7859,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7878,7 +7879,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7898,7 +7899,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7918,7 +7919,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7938,7 +7939,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7958,7 +7959,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7978,7 +7979,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7998,7 +7999,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8018,77 +8019,77 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8100,14 +8101,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -8117,7 +8118,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8137,7 +8138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8149,7 +8150,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8160,7 +8161,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8171,7 +8172,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8182,7 +8183,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8193,7 +8194,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8213,7 +8214,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8233,7 +8234,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8253,7 +8254,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8273,7 +8274,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8287,7 +8288,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8307,7 +8308,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8327,7 +8328,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8347,7 +8348,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8367,7 +8368,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8387,7 +8388,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -8407,7 +8408,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -8427,7 +8428,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -8447,7 +8448,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -8467,7 +8468,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -8487,7 +8488,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -8507,7 +8508,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8527,7 +8528,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -8547,7 +8548,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8567,7 +8568,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8587,77 +8588,77 @@
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8669,14 +8670,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
@@ -8686,7 +8687,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8706,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8718,7 +8719,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8729,7 +8730,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8740,7 +8741,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8751,7 +8752,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8762,7 +8763,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8782,7 +8783,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8802,7 +8803,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8822,7 +8823,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8842,7 +8843,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8862,7 +8863,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8882,7 +8883,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8902,7 +8903,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8922,7 +8923,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8936,7 +8937,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8950,7 +8951,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -8964,7 +8965,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -8984,7 +8985,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9004,7 +9005,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9024,7 +9025,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9044,7 +9045,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9064,7 +9065,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -9084,7 +9085,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -9104,7 +9105,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -9124,7 +9125,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -9144,77 +9145,77 @@
         <v>474</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -9226,14 +9227,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -9243,7 +9244,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9263,7 +9264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9277,7 +9278,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9291,7 +9292,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9305,7 +9306,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9319,7 +9320,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9333,7 +9334,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9347,7 +9348,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9361,7 +9362,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9375,7 +9376,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9389,7 +9390,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9403,7 +9404,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -9417,7 +9418,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9431,7 +9432,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9445,7 +9446,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9465,7 +9466,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9485,7 +9486,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -9505,7 +9506,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9525,7 +9526,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9545,7 +9546,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9565,7 +9566,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9585,7 +9586,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9605,7 +9606,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -9625,7 +9626,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -9645,7 +9646,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -9665,7 +9666,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -9685,7 +9686,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -9705,7 +9706,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -9725,7 +9726,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -9745,7 +9746,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -9765,7 +9766,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -9785,7 +9786,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -9805,7 +9806,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -9825,7 +9826,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -9845,7 +9846,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -9865,7 +9866,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -9885,7 +9886,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -9905,7 +9906,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -9925,7 +9926,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -9945,7 +9946,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -9965,7 +9966,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -9992,14 +9993,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I47" sqref="B45:I47"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -10009,7 +10010,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10029,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10043,7 +10044,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -10057,7 +10058,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -10071,7 +10072,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -10085,7 +10086,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -10099,7 +10100,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -10113,7 +10114,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -10127,7 +10128,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -10141,7 +10142,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -10155,7 +10156,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -10169,7 +10170,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10183,7 +10184,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10197,7 +10198,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -10211,7 +10212,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -10231,7 +10232,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -10251,7 +10252,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -10271,7 +10272,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -10291,7 +10292,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -10311,7 +10312,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -10331,7 +10332,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -10351,7 +10352,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -10371,7 +10372,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -10391,7 +10392,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -10411,7 +10412,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -10431,7 +10432,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -10451,7 +10452,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -10471,7 +10472,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -10491,7 +10492,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -10511,7 +10512,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -10531,7 +10532,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -10551,7 +10552,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -10571,7 +10572,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -10591,7 +10592,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -10611,7 +10612,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -10631,7 +10632,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -10651,7 +10652,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -10671,7 +10672,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -10691,7 +10692,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -10711,7 +10712,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -10731,7 +10732,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -10751,7 +10752,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -10778,14 +10779,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -10795,7 +10796,7 @@
     <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10815,7 +10816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10829,7 +10830,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -10843,7 +10844,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -10857,7 +10858,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -10871,7 +10872,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -10885,7 +10886,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -10899,7 +10900,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -10913,7 +10914,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -10927,7 +10928,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -10941,7 +10942,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -10955,7 +10956,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10969,7 +10970,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10983,7 +10984,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -10997,7 +10998,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -11017,7 +11018,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -11037,7 +11038,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -11057,7 +11058,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -11077,7 +11078,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -11097,7 +11098,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -11117,7 +11118,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -11137,7 +11138,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -11157,7 +11158,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -11177,7 +11178,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -11197,7 +11198,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -11217,7 +11218,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -11237,7 +11238,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -11257,7 +11258,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -11277,7 +11278,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -11297,7 +11298,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -11317,7 +11318,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -11337,7 +11338,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -11357,7 +11358,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -11377,7 +11378,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -11397,7 +11398,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -11417,7 +11418,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -11437,7 +11438,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -11457,7 +11458,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -11477,7 +11478,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -11497,7 +11498,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -11517,7 +11518,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -11767,18 +11768,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11801,14 +11802,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28E49BED-6583-4A90-8C68-901DA3709556}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C4CB42B-A03C-41C2-8A4E-CFAC77CE140C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="da8a4db2-b52b-4ccc-8e67-f2ee74f14b89"/>
@@ -11823,4 +11816,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28E49BED-6583-4A90-8C68-901DA3709556}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>